--- a/DriveTrain/PartsList.xlsx
+++ b/DriveTrain/PartsList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Part Name</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>DarkSoul #25 Chain Breaker Tool</t>
+  </si>
+  <si>
+    <t>DavesMotors</t>
+  </si>
+  <si>
+    <t>Total From DavesMotors</t>
+  </si>
+  <si>
+    <t>http://www.davesmotors.com/DarkSoul-25-Chain-Breaker-Tool-3466.html</t>
+  </si>
+  <si>
+    <t>http://www.andymark.com/product-p/am-2300.htm</t>
   </si>
 </sst>
 </file>
@@ -235,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -245,6 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,20 +637,20 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>12</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8">
         <f>C3*D3</f>
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,14 +724,14 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
         <v>12</v>
       </c>
       <c r="E7" s="7">
         <f>$C7*D7</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>30</v>
@@ -727,7 +743,7 @@
       </c>
       <c r="E11" s="7">
         <f>SUM(E2:E7)</f>
-        <v>231.5</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,13 +908,42 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>31.99</v>
+      </c>
+      <c r="E34" s="7">
+        <f>$D34*C34</f>
+        <v>31.99</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="7">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="7">
         <f>SUM(E23 + E32 + E11)</f>
-        <v>350.77750000000003</v>
+        <v>386.77750000000003</v>
       </c>
     </row>
   </sheetData>
@@ -911,6 +956,8 @@
     <hyperlink ref="F17" r:id="rId6"/>
     <hyperlink ref="F16" r:id="rId7"/>
     <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F34" r:id="rId9"/>
+    <hyperlink ref="F3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
